--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09357700000000001</v>
+        <v>0.008893</v>
       </c>
       <c r="H2">
-        <v>0.280731</v>
+        <v>0.026679</v>
       </c>
       <c r="I2">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="J2">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09357700000000001</v>
+        <v>0.008893</v>
       </c>
       <c r="N2">
-        <v>0.280731</v>
+        <v>0.026679</v>
       </c>
       <c r="O2">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="P2">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="Q2">
-        <v>0.008756654929000001</v>
+        <v>7.9085449E-05</v>
       </c>
       <c r="R2">
-        <v>0.078809894361</v>
+        <v>0.0007117690410000001</v>
       </c>
       <c r="S2">
-        <v>0.0006812366021617383</v>
+        <v>2.038975567486622E-06</v>
       </c>
       <c r="T2">
-        <v>0.0006812366021617381</v>
+        <v>2.038975567486622E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
+        <v>0.008893</v>
+      </c>
+      <c r="H3">
+        <v>0.026679</v>
+      </c>
+      <c r="I3">
+        <v>0.00142792701756309</v>
+      </c>
+      <c r="J3">
+        <v>0.00142792701756309</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.09357700000000001</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>0.280731</v>
       </c>
-      <c r="I3">
-        <v>0.02610050961498143</v>
-      </c>
-      <c r="J3">
-        <v>0.02610050961498143</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.687967333333334</v>
-      </c>
-      <c r="N3">
-        <v>5.063902000000001</v>
-      </c>
       <c r="O3">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="P3">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="Q3">
-        <v>0.1579549191513334</v>
+        <v>0.000832180261</v>
       </c>
       <c r="R3">
-        <v>1.421594272362</v>
+        <v>0.007489622349</v>
       </c>
       <c r="S3">
-        <v>0.0122883307941055</v>
+        <v>2.145521383995228E-05</v>
       </c>
       <c r="T3">
-        <v>0.0122883307941055</v>
+        <v>2.145521383995227E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09357700000000001</v>
+        <v>0.008893</v>
       </c>
       <c r="H4">
-        <v>0.280731</v>
+        <v>0.026679</v>
       </c>
       <c r="I4">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="J4">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.002080333333333333</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="N4">
-        <v>0.006241</v>
+        <v>10.719515</v>
       </c>
       <c r="O4">
-        <v>0.0005802468573370918</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="P4">
-        <v>0.0005802468573370918</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="Q4">
-        <v>0.0001946713523333333</v>
+        <v>0.03177621563166667</v>
       </c>
       <c r="R4">
-        <v>0.001752042171</v>
+        <v>0.285985940685</v>
       </c>
       <c r="S4">
-        <v>1.514473867898953E-05</v>
+        <v>0.0008192521901235564</v>
       </c>
       <c r="T4">
-        <v>1.514473867898952E-05</v>
+        <v>0.000819252190123556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,93 +708,93 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09357700000000001</v>
+        <v>0.008893</v>
       </c>
       <c r="H5">
-        <v>0.280731</v>
+        <v>0.026679</v>
       </c>
       <c r="I5">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="J5">
-        <v>0.02610050961498143</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.801631</v>
+        <v>0.002080333333333333</v>
       </c>
       <c r="N5">
-        <v>5.404893</v>
+        <v>0.006241</v>
       </c>
       <c r="O5">
-        <v>0.5025111644757644</v>
+        <v>0.0003340339786577925</v>
       </c>
       <c r="P5">
-        <v>0.5025111644757644</v>
+        <v>0.0003340339786577925</v>
       </c>
       <c r="Q5">
-        <v>0.168591224087</v>
+        <v>1.850040433333333E-05</v>
       </c>
       <c r="R5">
-        <v>1.517321016783</v>
+        <v>0.000166503639</v>
       </c>
       <c r="S5">
-        <v>0.01311579748003521</v>
+        <v>4.769761429095547E-07</v>
       </c>
       <c r="T5">
-        <v>0.0131157974800352</v>
+        <v>4.769761429095545E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.687967333333334</v>
+        <v>0.008893</v>
       </c>
       <c r="H6">
-        <v>5.063902000000001</v>
+        <v>0.026679</v>
       </c>
       <c r="I6">
-        <v>0.470808079051917</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="J6">
-        <v>0.470808079051917</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09357700000000001</v>
+        <v>2.550187333333334</v>
       </c>
       <c r="N6">
-        <v>0.280731</v>
+        <v>7.650562000000001</v>
       </c>
       <c r="O6">
-        <v>0.02610050961498143</v>
+        <v>0.4094772734863193</v>
       </c>
       <c r="P6">
-        <v>0.02610050961498143</v>
+        <v>0.4094772734863192</v>
       </c>
       <c r="Q6">
-        <v>0.1579549191513334</v>
+        <v>0.02267881595533333</v>
       </c>
       <c r="R6">
-        <v>1.421594272362</v>
+        <v>0.204109343598</v>
       </c>
       <c r="S6">
-        <v>0.0122883307941055</v>
+        <v>0.0005847036618891858</v>
       </c>
       <c r="T6">
-        <v>0.0122883307941055</v>
+        <v>0.0005847036618891856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.687967333333334</v>
+        <v>0.09357700000000001</v>
       </c>
       <c r="H7">
-        <v>5.063902000000001</v>
+        <v>0.280731</v>
       </c>
       <c r="I7">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="J7">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.687967333333334</v>
+        <v>0.008893</v>
       </c>
       <c r="N7">
-        <v>5.063902000000001</v>
+        <v>0.026679</v>
       </c>
       <c r="O7">
-        <v>0.470808079051917</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="P7">
-        <v>0.470808079051917</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="Q7">
-        <v>2.849233718400445</v>
+        <v>0.000832180261</v>
       </c>
       <c r="R7">
-        <v>25.64310346560401</v>
+        <v>0.007489622349</v>
       </c>
       <c r="S7">
-        <v>0.2216602473005561</v>
+        <v>2.145521383995228E-05</v>
       </c>
       <c r="T7">
-        <v>0.2216602473005561</v>
+        <v>2.145521383995227E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.687967333333334</v>
+        <v>0.09357700000000001</v>
       </c>
       <c r="H8">
-        <v>5.063902000000001</v>
+        <v>0.280731</v>
       </c>
       <c r="I8">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="J8">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.002080333333333333</v>
+        <v>0.09357700000000001</v>
       </c>
       <c r="N8">
-        <v>0.006241</v>
+        <v>0.280731</v>
       </c>
       <c r="O8">
-        <v>0.0005802468573370918</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="P8">
-        <v>0.0005802468573370918</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="Q8">
-        <v>0.003511534709111112</v>
+        <v>0.008756654929000001</v>
       </c>
       <c r="R8">
-        <v>0.031603812382</v>
+        <v>0.078809894361</v>
       </c>
       <c r="S8">
-        <v>0.0002731849082787879</v>
+        <v>0.0002257634707636585</v>
       </c>
       <c r="T8">
-        <v>0.0002731849082787879</v>
+        <v>0.0002257634707636584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.687967333333334</v>
+        <v>0.09357700000000001</v>
       </c>
       <c r="H9">
-        <v>5.063902000000001</v>
+        <v>0.280731</v>
       </c>
       <c r="I9">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="J9">
-        <v>0.470808079051917</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,78 +989,78 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.801631</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="N9">
-        <v>5.404893</v>
+        <v>10.719515</v>
       </c>
       <c r="O9">
-        <v>0.5025111644757644</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="P9">
-        <v>0.5025111644757644</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="Q9">
-        <v>3.041094274720667</v>
+        <v>0.3343666850516667</v>
       </c>
       <c r="R9">
-        <v>27.369848472486</v>
+        <v>3.009300165465</v>
       </c>
       <c r="S9">
-        <v>0.2365863160489766</v>
+        <v>0.008620618710805356</v>
       </c>
       <c r="T9">
-        <v>0.2365863160489766</v>
+        <v>0.008620618710805352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09357700000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.280731</v>
+      </c>
+      <c r="I10">
+        <v>0.01502542747357487</v>
+      </c>
+      <c r="J10">
+        <v>0.01502542747357487</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>0.002080333333333333</v>
       </c>
-      <c r="H10">
+      <c r="N10">
         <v>0.006241</v>
       </c>
-      <c r="I10">
-        <v>0.0005802468573370918</v>
-      </c>
-      <c r="J10">
-        <v>0.0005802468573370918</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.09357700000000001</v>
-      </c>
-      <c r="N10">
-        <v>0.280731</v>
-      </c>
       <c r="O10">
-        <v>0.02610050961498143</v>
+        <v>0.0003340339786577925</v>
       </c>
       <c r="P10">
-        <v>0.02610050961498143</v>
+        <v>0.0003340339786577925</v>
       </c>
       <c r="Q10">
         <v>0.0001946713523333333</v>
@@ -1066,42 +1069,42 @@
         <v>0.001752042171</v>
       </c>
       <c r="S10">
-        <v>1.514473867898953E-05</v>
+        <v>5.019003320032318E-06</v>
       </c>
       <c r="T10">
-        <v>1.514473867898952E-05</v>
+        <v>5.019003320032315E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.002080333333333333</v>
+        <v>0.09357700000000001</v>
       </c>
       <c r="H11">
-        <v>0.006241</v>
+        <v>0.280731</v>
       </c>
       <c r="I11">
-        <v>0.0005802468573370918</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="J11">
-        <v>0.0005802468573370918</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.687967333333334</v>
+        <v>2.550187333333334</v>
       </c>
       <c r="N11">
-        <v>5.063902000000001</v>
+        <v>7.650562000000001</v>
       </c>
       <c r="O11">
-        <v>0.470808079051917</v>
+        <v>0.4094772734863193</v>
       </c>
       <c r="P11">
-        <v>0.470808079051917</v>
+        <v>0.4094772734863192</v>
       </c>
       <c r="Q11">
-        <v>0.003511534709111112</v>
+        <v>0.2386388800913334</v>
       </c>
       <c r="R11">
-        <v>0.031603812382</v>
+        <v>2.147749920822</v>
       </c>
       <c r="S11">
-        <v>0.0002731849082787879</v>
+        <v>0.006152571074845872</v>
       </c>
       <c r="T11">
-        <v>0.0002731849082787879</v>
+        <v>0.00615257107484587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.002080333333333333</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="H12">
-        <v>0.006241</v>
+        <v>10.719515</v>
       </c>
       <c r="I12">
-        <v>0.0005802468573370918</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="J12">
-        <v>0.0005802468573370918</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1172,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.002080333333333333</v>
+        <v>0.008893</v>
       </c>
       <c r="N12">
-        <v>0.006241</v>
+        <v>0.026679</v>
       </c>
       <c r="O12">
-        <v>0.0005802468573370918</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="P12">
-        <v>0.0005802468573370918</v>
+        <v>0.00142792701756309</v>
       </c>
       <c r="Q12">
-        <v>4.327786777777778E-06</v>
+        <v>0.03177621563166667</v>
       </c>
       <c r="R12">
-        <v>3.8950081E-05</v>
+        <v>0.285985940685</v>
       </c>
       <c r="S12">
-        <v>3.366864154495714E-07</v>
+        <v>0.0008192521901235564</v>
       </c>
       <c r="T12">
-        <v>3.366864154495714E-07</v>
+        <v>0.000819252190123556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.002080333333333333</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="H13">
-        <v>0.006241</v>
+        <v>10.719515</v>
       </c>
       <c r="I13">
-        <v>0.0005802468573370918</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="J13">
-        <v>0.0005802468573370918</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,42 +1237,42 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.801631</v>
+        <v>0.09357700000000001</v>
       </c>
       <c r="N13">
-        <v>5.404893</v>
+        <v>0.280731</v>
       </c>
       <c r="O13">
-        <v>0.5025111644757644</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="P13">
-        <v>0.5025111644757644</v>
+        <v>0.01502542747357487</v>
       </c>
       <c r="Q13">
-        <v>0.003747993023666666</v>
+        <v>0.3343666850516667</v>
       </c>
       <c r="R13">
-        <v>0.033731937213</v>
+        <v>3.009300165465</v>
       </c>
       <c r="S13">
-        <v>0.0002915805239638648</v>
+        <v>0.008620618710805356</v>
       </c>
       <c r="T13">
-        <v>0.0002915805239638648</v>
+        <v>0.008620618710805352</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1278,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.801631</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="H14">
-        <v>5.404893</v>
+        <v>10.719515</v>
       </c>
       <c r="I14">
-        <v>0.5025111644757644</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="J14">
-        <v>0.5025111644757644</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,43 +1299,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09357700000000001</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="N14">
-        <v>0.280731</v>
+        <v>10.719515</v>
       </c>
       <c r="O14">
-        <v>0.02610050961498143</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="P14">
-        <v>0.02610050961498143</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="Q14">
-        <v>0.168591224087</v>
+        <v>12.76755575946944</v>
       </c>
       <c r="R14">
-        <v>1.517321016783</v>
+        <v>114.908001835225</v>
       </c>
       <c r="S14">
-        <v>0.01311579748003521</v>
+        <v>0.3291722381203311</v>
       </c>
       <c r="T14">
-        <v>0.0131157974800352</v>
+        <v>0.329172238120331</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1340,61 +1343,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.801631</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="H15">
-        <v>5.404893</v>
+        <v>10.719515</v>
       </c>
       <c r="I15">
-        <v>0.5025111644757644</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="J15">
-        <v>0.5025111644757644</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.687967333333334</v>
+        <v>0.002080333333333333</v>
       </c>
       <c r="N15">
-        <v>5.063902000000001</v>
+        <v>0.006241</v>
       </c>
       <c r="O15">
-        <v>0.470808079051917</v>
+        <v>0.0003340339786577925</v>
       </c>
       <c r="P15">
-        <v>0.470808079051917</v>
+        <v>0.0003340339786577925</v>
       </c>
       <c r="Q15">
-        <v>3.041094274720667</v>
+        <v>0.007433388123888889</v>
       </c>
       <c r="R15">
-        <v>27.369848472486</v>
+        <v>0.066900493115</v>
       </c>
       <c r="S15">
-        <v>0.2365863160489766</v>
+        <v>0.0001916470976633725</v>
       </c>
       <c r="T15">
-        <v>0.2365863160489766</v>
+        <v>0.0001916470976633724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1402,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.801631</v>
+        <v>3.573171666666667</v>
       </c>
       <c r="H16">
-        <v>5.404893</v>
+        <v>10.719515</v>
       </c>
       <c r="I16">
-        <v>0.5025111644757644</v>
+        <v>0.5737353380438851</v>
       </c>
       <c r="J16">
-        <v>0.5025111644757644</v>
+        <v>0.573735338043885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.002080333333333333</v>
+        <v>2.550187333333334</v>
       </c>
       <c r="N16">
-        <v>0.006241</v>
+        <v>7.650562000000001</v>
       </c>
       <c r="O16">
-        <v>0.0005802468573370918</v>
+        <v>0.4094772734863193</v>
       </c>
       <c r="P16">
-        <v>0.0005802468573370918</v>
+        <v>0.4094772734863192</v>
       </c>
       <c r="Q16">
-        <v>0.003747993023666666</v>
+        <v>9.112257124158889</v>
       </c>
       <c r="R16">
-        <v>0.033731937213</v>
+        <v>82.01031411743</v>
       </c>
       <c r="S16">
-        <v>0.0002915805239638648</v>
+        <v>0.2349315819249618</v>
       </c>
       <c r="T16">
-        <v>0.0002915805239638648</v>
+        <v>0.2349315819249617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.006241</v>
+      </c>
+      <c r="I17">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="J17">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.008893</v>
+      </c>
+      <c r="N17">
+        <v>0.026679</v>
+      </c>
+      <c r="O17">
+        <v>0.00142792701756309</v>
+      </c>
+      <c r="P17">
+        <v>0.00142792701756309</v>
+      </c>
+      <c r="Q17">
+        <v>1.850040433333333E-05</v>
+      </c>
+      <c r="R17">
+        <v>0.000166503639</v>
+      </c>
+      <c r="S17">
+        <v>4.769761429095547E-07</v>
+      </c>
+      <c r="T17">
+        <v>4.769761429095545E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.006241</v>
+      </c>
+      <c r="I18">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="J18">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.09357700000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.280731</v>
+      </c>
+      <c r="O18">
+        <v>0.01502542747357487</v>
+      </c>
+      <c r="P18">
+        <v>0.01502542747357487</v>
+      </c>
+      <c r="Q18">
+        <v>0.0001946713523333333</v>
+      </c>
+      <c r="R18">
+        <v>0.001752042171</v>
+      </c>
+      <c r="S18">
+        <v>5.019003320032318E-06</v>
+      </c>
+      <c r="T18">
+        <v>5.019003320032315E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.006241</v>
+      </c>
+      <c r="I19">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="J19">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.573171666666667</v>
+      </c>
+      <c r="N19">
+        <v>10.719515</v>
+      </c>
+      <c r="O19">
+        <v>0.5737353380438851</v>
+      </c>
+      <c r="P19">
+        <v>0.573735338043885</v>
+      </c>
+      <c r="Q19">
+        <v>0.007433388123888889</v>
+      </c>
+      <c r="R19">
+        <v>0.066900493115</v>
+      </c>
+      <c r="S19">
+        <v>0.0001916470976633725</v>
+      </c>
+      <c r="T19">
+        <v>0.0001916470976633724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.006241</v>
+      </c>
+      <c r="I20">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="J20">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.006241</v>
+      </c>
+      <c r="O20">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="P20">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="Q20">
+        <v>4.327786777777778E-06</v>
+      </c>
+      <c r="R20">
+        <v>3.8950081E-05</v>
+      </c>
+      <c r="S20">
+        <v>1.115786988979546E-07</v>
+      </c>
+      <c r="T20">
+        <v>1.115786988979546E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.006241</v>
+      </c>
+      <c r="I21">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="J21">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="N21">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="P21">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="Q21">
+        <v>0.005305239715777778</v>
+      </c>
+      <c r="R21">
+        <v>0.047747157442</v>
+      </c>
+      <c r="S21">
+        <v>0.0001367793228325803</v>
+      </c>
+      <c r="T21">
+        <v>0.0001367793228325802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="H22">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="J22">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.008893</v>
+      </c>
+      <c r="N22">
+        <v>0.026679</v>
+      </c>
+      <c r="O22">
+        <v>0.00142792701756309</v>
+      </c>
+      <c r="P22">
+        <v>0.00142792701756309</v>
+      </c>
+      <c r="Q22">
+        <v>0.02267881595533333</v>
+      </c>
+      <c r="R22">
+        <v>0.204109343598</v>
+      </c>
+      <c r="S22">
+        <v>0.0005847036618891858</v>
+      </c>
+      <c r="T22">
+        <v>0.0005847036618891856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="H23">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="J23">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.09357700000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.280731</v>
+      </c>
+      <c r="O23">
+        <v>0.01502542747357487</v>
+      </c>
+      <c r="P23">
+        <v>0.01502542747357487</v>
+      </c>
+      <c r="Q23">
+        <v>0.2386388800913334</v>
+      </c>
+      <c r="R23">
+        <v>2.147749920822</v>
+      </c>
+      <c r="S23">
+        <v>0.006152571074845872</v>
+      </c>
+      <c r="T23">
+        <v>0.00615257107484587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="H24">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="J24">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.573171666666667</v>
+      </c>
+      <c r="N24">
+        <v>10.719515</v>
+      </c>
+      <c r="O24">
+        <v>0.5737353380438851</v>
+      </c>
+      <c r="P24">
+        <v>0.573735338043885</v>
+      </c>
+      <c r="Q24">
+        <v>9.112257124158889</v>
+      </c>
+      <c r="R24">
+        <v>82.01031411743</v>
+      </c>
+      <c r="S24">
+        <v>0.2349315819249618</v>
+      </c>
+      <c r="T24">
+        <v>0.2349315819249617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.801631</v>
-      </c>
-      <c r="H17">
-        <v>5.404893</v>
-      </c>
-      <c r="I17">
-        <v>0.5025111644757644</v>
-      </c>
-      <c r="J17">
-        <v>0.5025111644757644</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.801631</v>
-      </c>
-      <c r="N17">
-        <v>5.404893</v>
-      </c>
-      <c r="O17">
-        <v>0.5025111644757644</v>
-      </c>
-      <c r="P17">
-        <v>0.5025111644757644</v>
-      </c>
-      <c r="Q17">
-        <v>3.245874260160999</v>
-      </c>
-      <c r="R17">
-        <v>29.212868341449</v>
-      </c>
-      <c r="S17">
-        <v>0.2525174704227887</v>
-      </c>
-      <c r="T17">
-        <v>0.2525174704227887</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="H25">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="J25">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.002080333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.006241</v>
+      </c>
+      <c r="O25">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="P25">
+        <v>0.0003340339786577925</v>
+      </c>
+      <c r="Q25">
+        <v>0.005305239715777778</v>
+      </c>
+      <c r="R25">
+        <v>0.047747157442</v>
+      </c>
+      <c r="S25">
+        <v>0.0001367793228325803</v>
+      </c>
+      <c r="T25">
+        <v>0.0001367793228325802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="H26">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="J26">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.550187333333334</v>
+      </c>
+      <c r="N26">
+        <v>7.650562000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.4094772734863193</v>
+      </c>
+      <c r="P26">
+        <v>0.4094772734863192</v>
+      </c>
+      <c r="Q26">
+        <v>6.503455435093779</v>
+      </c>
+      <c r="R26">
+        <v>58.53109891584401</v>
+      </c>
+      <c r="S26">
+        <v>0.1676716375017899</v>
+      </c>
+      <c r="T26">
+        <v>0.1676716375017899</v>
       </c>
     </row>
   </sheetData>
